--- a/CS490_Graduation_Thesis/work/results/aliyunbailian/average_all_without_system.xlsx
+++ b/CS490_Graduation_Thesis/work/results/aliyunbailian/average_all_without_system.xlsx
@@ -763,15 +763,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>无提示语</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>-</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr altLang="en-US"/>
-              <a:t>均分</a:t>
+              <a:t>无提示语时各模型打分均分</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
@@ -2327,7 +2320,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="1"/>
